--- a/loaded_influencer_data/beautyfindscanada/beautyfindscanada_video.xlsx
+++ b/loaded_influencer_data/beautyfindscanada/beautyfindscanada_video.xlsx
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7459138954235759880</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1877</v>
+        <v>1886</v>
       </c>
       <c r="C2" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D2" t="n">
         <v>79</v>
@@ -524,28 +524,27 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>use code: AZRIEL50 at checkout on @YesStyle to get your 🛍️ at a discounted price ✨
-thank you @Shop Vivid and</t>
+          <t>할인된 가격으로 🛍️ 받으려면 계산대에서 코드: AZRIEL50을 사용하십시오✨ 이 놀라운 푸딩 냄비에 감사드립니다! 나는 모든 색깔을 좋아합니다😍❤️ 이 푸딩 냄비도 사용할 수 있습니다. 코드: INF10BFCAN을 사용하여 할인된 가격으로 🛍️ 받으십시오🩷 ❤️</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25.67927543953117</v>
+        <v>25.71580063626723</v>
       </c>
       <c r="I2" t="n">
-        <v>21.470431539691</v>
+        <v>21.52704135737009</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.208843899840171</v>
+        <v>4.188759278897137</v>
       </c>
       <c r="L2" t="n">
-        <v>1.758124667021844</v>
+        <v>1.855779427359491</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -559,45 +558,45 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7445713318116969735</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1894</v>
+        <v>1911</v>
       </c>
       <c r="C3" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>the prettiest skincare box from @Abib Global ! 😍 all the products are bestsellers with an impressive ingredient list, especially the Jericho Rose Crème! ❤️</t>
+          <t>가장 예쁜 스킨케어 박스! 😍 모든 제품은 인상적인 성분 목록을 가진 베스트셀러입니다. 특히 Jericho Rose Crème! ❤️ 사용 가능한 제품: - 할인코드 : AZRIEL50⭐ - 할인코드 : INF10BFCAN⭐ 💚 💚</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>39.9155227032735</v>
+        <v>39.92673992673993</v>
       </c>
       <c r="I3" t="n">
-        <v>34.58289334741288</v>
+        <v>34.53689167974882</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.332629355860612</v>
+        <v>5.389848246991104</v>
       </c>
       <c r="L3" t="n">
-        <v>2.111932418162619</v>
+        <v>2.145473574045003</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -611,19 +610,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7428774162862247176</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6011</v>
+        <v>6025</v>
       </c>
       <c r="C4" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -633,24 +632,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>🚨 LIMITED EDITION 🚨 @AXIS-Y "What Is Your Weather" Box at 60% OFF at @YesStyle !!
-Get additional discount using code: AZRIEL50 at checkout!!</t>
+          <t>🚨 리미티드 에디션🚨"What Is Your Weather" 박스 60% 할인!! 계산대에서 코드: AZRIEL50을 사용하여 추가 할인을 받으세요!! (예스스타일 전용!) 영재/홍보 💚 💚 💚 💚</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.22209282981201</v>
+        <v>15.25311203319502</v>
       </c>
       <c r="I4" t="n">
-        <v>14.17401430710364</v>
+        <v>14.19087136929461</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.048078522708368</v>
+        <v>1.062240663900415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7486275162202629</v>
+        <v>0.7468879668049793</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -664,98 +662,95 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7486806333942025480</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271</v>
+        <v>518</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>these are must-have lip balms from @CNP Laboratory US 😍
-all available at:
-@YesStyle : 🛍️ code - AZRIEL50</t>
+          <t>these are must-have lip balms from @CNP Laboratory US 😍 all available at: @YesStyle: 🛍️ code - AZRIEL50 @Stylevana: 🛍️ code - INF10BFCAN thank you cnp lab for such amazing lip balms 😍 #lipcerin #drylips #koreanskincare #prunboxing #cnplaboratory #pr #koreanskincareproducts #kbeauty #cnplipcerin #musthaves #fyp #skintok #lipcare #lips #moisturizer #viralskincare</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>28.78228782287823</v>
+        <v>27.02702702702703</v>
       </c>
       <c r="I5" t="n">
-        <v>19.55719557195572</v>
+        <v>18.72586872586873</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>9.22509225092251</v>
+        <v>8.301158301158301</v>
       </c>
       <c r="L5" t="n">
-        <v>4.059040590405904</v>
+        <v>2.895752895752896</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7483170009611521287</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299</v>
+        <v>1359</v>
       </c>
       <c r="C6" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>the mugwort line from I'm From is a must have in my opinion 😍💚
-thank you @cosmetic_jolse for these amazing products from</t>
+          <t>the mugwort line from I'm From is a must have in my opinion 😍💚 thank you @cosmetic_jolse for these amazing products from @I’m from Influencers! 🥰 all products are available at: cosmeticjolse.com #cosmeticjolse #jolse #kbeauty #kbeautyskincare #koreanskincare #skincare #imfrom #imfrommugwortessence #imfrommugwort #musthaves #skintok #skincareroutine #skincaretips #skincareviral #fyp #viralskincare #xybca #ugc #jolseskincare #mugwort #mugwortmask #mugworthmask @imfrom_us #fypシ゚ #fypage</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15.24249422632794</v>
+        <v>15.37895511405445</v>
       </c>
       <c r="I6" t="n">
-        <v>10.62355658198614</v>
+        <v>10.89036055923473</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>4.618937644341801</v>
+        <v>4.488594554819721</v>
       </c>
       <c r="L6" t="n">
-        <v>1.539645881447267</v>
+        <v>1.545253863134658</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -767,16 +762,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7481346321392356616</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" t="n">
         <v>54</v>
@@ -789,26 +784,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>must have glass skin duo from @bentoncosmetic 🥰
-available at:
-@YesStyle : 🛍️ code - AZRIEL50
-@Stylevana : 🛍️ code - INF10BFCAN</t>
+          <t>🥰의 유리 스킨 듀오가 있어야합니다. 다음에서 사용할 수 있습니다. :🛍️코드 - AZRIEL50 :🛍️코드 - INF10BFCAN 벤튼 감사합니다! 🥹💗</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>24.28571428571428</v>
+        <v>22.7994227994228</v>
       </c>
       <c r="I7" t="n">
-        <v>15.71428571428571</v>
+        <v>15.00721500721501</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.571428571428571</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="L7" t="n">
-        <v>2.222222222222222</v>
+        <v>2.02020202020202</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -820,46 +812,45 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7481341486676577544</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191</v>
+        <v>1233</v>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>a hydrating and plumping lip balm from @Earth Harbor Naturals ! 🩷
-available at: earthharbor.com</t>
+          <t>수분을 공급하고 통통한 립밤!🩷 이용 가능:earthharbor.com @Earth Harbor Naturals #skincare #skincareroutine</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.6095717884131</v>
+        <v>14.84184914841849</v>
       </c>
       <c r="I8" t="n">
-        <v>12.59445843828715</v>
+        <v>12.81427412814274</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.015113350125945</v>
+        <v>2.02757502027575</v>
       </c>
       <c r="L8" t="n">
-        <v>1.007556675062972</v>
+        <v>1.05433901054339</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -871,16 +862,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7481338363069451538</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499</v>
+        <v>643</v>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D9" t="n">
         <v>35</v>
@@ -889,27 +880,27 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>not the biggest fan of this one from @Earth Harbor Naturals ! this is their mermaid moon cream, would recommend all their other serums though 👀❤️</t>
+          <t>이 제품의 가장 큰 팬은 아닙니다! 이것은 인어 문 크림입니다. 다른 세럼을 모두 추천할 것입니다👀❤️ 이용 가능:earthharbor.com</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>19.43887775551102</v>
+        <v>16.17418351477449</v>
       </c>
       <c r="I9" t="n">
-        <v>12.4248496993988</v>
+        <v>10.73094867807154</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.014028056112225</v>
+        <v>5.443234836702955</v>
       </c>
       <c r="L9" t="n">
-        <v>2.404809619238477</v>
+        <v>2.021772939346812</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -921,16 +912,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7479447083108404498</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1219</v>
+        <v>1238</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D10" t="n">
         <v>47</v>
@@ -943,23 +934,23 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>the one &amp; only product you need to minimise irritation and redness is @Abib Cosmetics Heartleaf TECA capsule serum 😍💚</t>
+          <t>자극과 홍조를 최소화하기 위해 필요한 유일한 제품은 Heartleap TECA 캡슐 세럼😍💚 다음에서 사용할 수 있습니다. :🛍️코드 - AZRIEL50 :🛍️코드 - INF10BFCAN 감사합니다 Abib 🥰</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15.42247744052502</v>
+        <v>15.50888529886914</v>
       </c>
       <c r="I10" t="n">
-        <v>11.56685808039377</v>
+        <v>11.7124394184168</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.855619360131255</v>
+        <v>3.796445880452342</v>
       </c>
       <c r="L10" t="n">
-        <v>1.148482362592289</v>
+        <v>1.130856219709208</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -971,7 +962,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7478060226596326664</t>
         </is>
@@ -1024,7 +1015,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7478055199626562823</t>
         </is>
@@ -1077,7 +1068,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7476904796738374920</t>
         </is>
@@ -1130,7 +1121,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7476898498940521735</t>
         </is>
@@ -1183,7 +1174,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7476890516391513352</t>
         </is>
@@ -1236,7 +1227,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7475040087705701637</t>
         </is>
@@ -1290,7 +1281,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7474376322546945285</t>
         </is>
@@ -1343,7 +1334,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7474350557164047621</t>
         </is>
@@ -1396,7 +1387,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7472981029263854856</t>
         </is>
@@ -1449,7 +1440,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7471499407150583047</t>
         </is>
@@ -1502,7 +1493,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7471157513019313426</t>
         </is>
@@ -1553,7 +1544,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7470366600433093895</t>
         </is>
@@ -1605,7 +1596,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7469662780417690898</t>
         </is>
@@ -1657,7 +1648,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7469114190867729671</t>
         </is>
@@ -1708,7 +1699,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7468103057159572754</t>
         </is>
@@ -1759,7 +1750,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7466986675369970951</t>
         </is>
@@ -1811,7 +1802,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7466546821247077639</t>
         </is>
@@ -1863,7 +1854,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7466512679637650696</t>
         </is>
@@ -1915,7 +1906,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7464651864026434834</t>
         </is>
@@ -1968,7 +1959,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7464263500488051986</t>
         </is>
@@ -2021,7 +2012,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7464014730340928776</t>
         </is>
@@ -2073,7 +2064,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7462546732883217682</t>
         </is>
@@ -2127,7 +2118,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7461791919270563080</t>
         </is>
@@ -2178,7 +2169,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7461464809251278087</t>
         </is>
@@ -2229,7 +2220,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7460307551209458962</t>
         </is>
@@ -2282,7 +2273,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7458858086984453394</t>
         </is>
@@ -2333,7 +2324,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7457774554249743623</t>
         </is>
@@ -2384,7 +2375,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7457701834069740818</t>
         </is>
@@ -2436,7 +2427,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7456997908999589128</t>
         </is>
@@ -2489,7 +2480,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7456166949127572743</t>
         </is>
@@ -2541,7 +2532,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7451742232685694226</t>
         </is>
@@ -2593,7 +2584,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7450693724935425287</t>
         </is>
@@ -2644,7 +2635,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7449792171298868498</t>
         </is>
@@ -2695,7 +2686,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7449561936372469010</t>
         </is>
@@ -2745,7 +2736,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7449153682668653842</t>
         </is>
@@ -2798,7 +2789,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7448446173913943303</t>
         </is>
@@ -2849,7 +2840,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7447702990573686024</t>
         </is>
@@ -2901,7 +2892,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7446932396122950919</t>
         </is>
@@ -2954,7 +2945,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7444974585004461320</t>
         </is>
@@ -3005,7 +2996,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautyfindscanada/video/7444269037695012114</t>
         </is>
